--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed1/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.883999999999997</v>
+        <v>8.863899999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.09589999999999</v>
+        <v>-12.09099999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -516,7 +516,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.452600000000003</v>
+        <v>5.484899999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -530,13 +530,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.241500000000003</v>
+        <v>5.216500000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.3934</v>
+        <v>-8.194499999999998</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.383800000000003</v>
+        <v>-8.7546</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.2461</v>
+        <v>-10.1406</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -578,7 +578,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.739400000000002</v>
+        <v>-7.712100000000001</v>
       </c>
     </row>
     <row r="11">
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.3466</v>
+        <v>-10.54389999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.315799999999998</v>
+        <v>-8.252299999999996</v>
       </c>
     </row>
     <row r="14">
@@ -656,13 +656,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.883199999999999</v>
+        <v>4.576399999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.043499999999996</v>
+        <v>-8.313499999999994</v>
       </c>
     </row>
     <row r="17">
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.45419999999999</v>
+        <v>-13.88389999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.64579999999999</v>
+        <v>-11.7807</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.0879</v>
+        <v>-11.0409</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -712,10 +712,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.645699999999984</v>
+        <v>9.76259999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.7996</v>
+        <v>-12.67399999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7032</v>
+        <v>-12.5857</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -824,7 +824,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.279100000000001</v>
+        <v>6.333300000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602400000000001</v>
+        <v>5.5127</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -858,7 +858,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.909799999999999</v>
+        <v>-6.918699999999996</v>
       </c>
     </row>
     <row r="31">
@@ -869,7 +869,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2848</v>
+        <v>-13.2754</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -880,7 +880,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.443500000000001</v>
+        <v>6.573899999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-11.3068</v>
+        <v>-11.5255</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -992,13 +992,13 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.490099999999989</v>
+        <v>9.430399999999993</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.82930000000001</v>
+        <v>-12.65560000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.45989999999999</v>
+        <v>-8.655199999999995</v>
       </c>
     </row>
     <row r="41">
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.44870000000001</v>
+        <v>-12.60510000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-11.4397</v>
+        <v>-11.68729999999999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1037,7 +1037,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.28159999999999</v>
+        <v>-12.40899999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1054,7 +1054,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.644800000000003</v>
+        <v>-6.518300000000004</v>
       </c>
     </row>
     <row r="45">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.546500000000004</v>
+        <v>5.293700000000004</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.14979999999999</v>
+        <v>-12.19629999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.4606</v>
+        <v>-11.5375</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1146,7 +1146,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.747799999999997</v>
+        <v>5.329599999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.606499999999999</v>
+        <v>5.257499999999994</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.256299999999999</v>
+        <v>5.289599999999998</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.934900000000003</v>
+        <v>4.741200000000003</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1300,7 +1300,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.218600000000001</v>
+        <v>5.197199999999999</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1317,7 +1317,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.10259999999999</v>
+        <v>-10.1728</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.4332</v>
+        <v>-10.3897</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.383999999999999</v>
+        <v>5.775799999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.1007</v>
+        <v>9.021799999999995</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1468,7 +1468,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.900699999999992</v>
+        <v>9.194999999999991</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.76920000000001</v>
+        <v>-11.7392</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-14.0883</v>
+        <v>-13.53879999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1681,10 +1681,10 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-12.67890000000001</v>
+        <v>-12.746</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.174699999999991</v>
+        <v>-7.804899999999996</v>
       </c>
     </row>
     <row r="90">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.048800000000002</v>
+        <v>-7.770199999999997</v>
       </c>
     </row>
     <row r="92">
@@ -1720,7 +1720,7 @@
         <v>-21.3</v>
       </c>
       <c r="B92" t="n">
-        <v>4.902799999999996</v>
+        <v>4.805699999999997</v>
       </c>
       <c r="C92" t="n">
         <v>-9.789999999999999</v>
@@ -1751,7 +1751,7 @@
         <v>6.16</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.0453</v>
+        <v>-10.6441</v>
       </c>
       <c r="D94" t="n">
         <v>-5.32</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.339700000000004</v>
+        <v>4.681900000000003</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
